--- a/src/main/java/resources/metaPractise.xlsx
+++ b/src/main/java/resources/metaPractise.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="260">
   <si>
     <t>Domain</t>
   </si>
@@ -383,69 +383,6 @@
     <t>Learn how cookies optimize your browsing experience on our platform. Explore our cookie policy for insights into our data management practices.</t>
   </si>
   <si>
-    <t>carecrewworks.com</t>
-  </si>
-  <si>
-    <t>Find Your Next Healthcare Job | Explore Our Job Board</t>
-  </si>
-  <si>
-    <t>Discover exciting new healthcare jobs across specialties and locations on our job board – find your perfect opportunity and advance your career today.</t>
-  </si>
-  <si>
-    <t>Find Your Ideal Healthcare Job - Explore Openings</t>
-  </si>
-  <si>
-    <t>Discover healthcare job listings tailored to your skills and preferences. Search by location, specialty, or keyword to find your next career move.</t>
-  </si>
-  <si>
-    <t>About Us - Healthcare Job Search Experts</t>
-  </si>
-  <si>
-    <t>Learn about our healthcare job search platform and our mission to connect healthcare professionals with their ideal roles and in shaping their future.</t>
-  </si>
-  <si>
-    <t>Need Help? Contact Our Healthcare Job Team</t>
-  </si>
-  <si>
-    <t>Need assistance with your healthcare job search? Contact us today. Our support team is here to help you with any questions or issues you might have.</t>
-  </si>
-  <si>
-    <t>Privacy Policy - Your Data and Our Practices</t>
-  </si>
-  <si>
-    <t>Read our privacy policy to understand how we handle and protect your data. Discover our commitment to maintaining your privacy while using our platform.</t>
-  </si>
-  <si>
-    <t>Using Our Job Aggregator? Read Our Terms &amp; Conditions</t>
-  </si>
-  <si>
-    <t>Review our terms and conditions to understand the rules and guidelines for using our healthcare job search platform as a user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discover Career Opportunities with Our Company Jobs </t>
-  </si>
-  <si>
-    <t>Explore healthcare job opportunities at prime Companies. Discover current openings and apply today to join their team of healthcare professionals.</t>
-  </si>
-  <si>
-    <t>Explore Healthcare Opportunities Near Your Location</t>
-  </si>
-  <si>
-    <t>Find healthcare jobs in locations near you. Explore current job listings and discover exciting career opportunities in your area.</t>
-  </si>
-  <si>
-    <t>Apply CompanyName Healthcare Jobs in City, State</t>
-  </si>
-  <si>
-    <t>Browse all healthcare jobs from CompanyName in City, State on our platform. Discover a wide range of opportunities and find your ideal role.</t>
-  </si>
-  <si>
-    <t>Understand Our Cookie Policy - Your Choices</t>
-  </si>
-  <si>
-    <t>Read our cookie policy to understand how we use cookies on our healthcare job search platform and learn about our data practices.</t>
-  </si>
-  <si>
     <t>employspotlight.com</t>
   </si>
   <si>
@@ -686,69 +623,6 @@
     <t>Understand our cookie policy and how we use cookies to improve your experience. Learn about our practices and how to manage your preferences effectively.</t>
   </si>
   <si>
-    <t>hopefulhirings.com</t>
-  </si>
-  <si>
-    <t>Explore Exciting Job Opportunities - Find Careers That Match Your Skills</t>
-  </si>
-  <si>
-    <t>Start your journey to career success by exploring job opportunities that match your unique skills. Explore our Jobs and apply today.</t>
-  </si>
-  <si>
-    <t>Start Your Job Search Today and Find Perfect Career Match</t>
-  </si>
-  <si>
-    <t>Use our advanced job search to find your next career opportunity. Explore thousands of listings from top employers and start your journey today.</t>
-  </si>
-  <si>
-    <t>Discover Our Story and Values on the About Us Section</t>
-  </si>
-  <si>
-    <t>Learn more about our mission and values on our About Us page. Discover how we connect job seekers with top employers and support your career goals.</t>
-  </si>
-  <si>
-    <t>Contact Us for Support Inquiries and More Information</t>
-  </si>
-  <si>
-    <t>Contact us for any support or information you need. Our team is ready to assist you through our Contact Us page.</t>
-  </si>
-  <si>
-    <t>Privacy - Understand How We Safeguard Your Information</t>
-  </si>
-  <si>
-    <t>Read our Privacy Policy to see how we handle your data. We prioritize your privacy and explain our data protection measures in detail.</t>
-  </si>
-  <si>
-    <t>Learn About Our Terms and Conditions for Service Use</t>
-  </si>
-  <si>
-    <t>Read our Terms and Conditions to understand your rights and obligations when using our platform. Learn about the rules and guidelines for our services.</t>
-  </si>
-  <si>
-    <t>Browse Top Company Jobs and Kickstart Your Career</t>
-  </si>
-  <si>
-    <t>Explore job listings from top companies on our Company Jobs page. Find and apply for opportunities with leading employers in various industries.</t>
-  </si>
-  <si>
-    <t>Find Jobs Near You with Our Location Focussed Search</t>
-  </si>
-  <si>
-    <t>Use our Location Jobs page to find jobs in your preferred area. Explore local job listings and apply for positions that fit your criteria.</t>
-  </si>
-  <si>
-    <t>CompanyName Hiring Various Positions in City, State</t>
-  </si>
-  <si>
-    <t>Discover a wide range of job opportunities at CompanyName in City, State. Explore various positions and find the right fit for your career goals.</t>
-  </si>
-  <si>
-    <t>Understand How We Use Cookies on Our Cookie Policy Page</t>
-  </si>
-  <si>
-    <t>Read our Cookie Policy to understand our data collection practices. Discover how we use cookies to enhance our services and safeguard your information.</t>
-  </si>
-  <si>
     <t>wholesomehiring.com</t>
   </si>
   <si>
@@ -810,13 +684,133 @@
   </si>
   <si>
     <t xml:space="preserve">Discover Our Data Protection Practices in your Privacy Policy </t>
+  </si>
+  <si>
+    <t>placementpeaks.com</t>
+  </si>
+  <si>
+    <t>Start Your Career Journey Now - Apply for Jobs Here</t>
+  </si>
+  <si>
+    <t>Your dream job is one step away with our job search. Explore our curated job listings and apply to positions that match your skills and interests</t>
+  </si>
+  <si>
+    <t>Use our Efficient Job Search for Your Career Growth</t>
+  </si>
+  <si>
+    <t>Empower your job search with our robust platform. Explore job openings across industries and locations, tailored to match your skills and interests.</t>
+  </si>
+  <si>
+    <t>Get to Know Us and Our Job Search Services</t>
+  </si>
+  <si>
+    <t>Discover why we're your trusted job search partner. Learn about our dedication to integrity, quality and helping you achieve career success.</t>
+  </si>
+  <si>
+    <t>We're Here for You. Contact Us Anytime</t>
+  </si>
+  <si>
+    <t>We're here to assist you. Contact us for any queries about our services or to provide feedback on your experience with our job search platform.</t>
+  </si>
+  <si>
+    <t>Trust uss with your Data Privacy Policy Overview</t>
+  </si>
+  <si>
+    <t>We're committed to your privacy. Our policy details our practices regarding data collection, usage and protection on our job search platform.</t>
+  </si>
+  <si>
+    <t>Agreement Terms for Using Our Job Search Platform</t>
+  </si>
+  <si>
+    <t>Get acquainted with our terms. By using our services, you agree to the terms and conditions that govern our job search platform.</t>
+  </si>
+  <si>
+    <t>Find Jobs at Premier Companies Aligned with your Goals</t>
+  </si>
+  <si>
+    <t>Apply to company jobs. Our platform makes it easy to find and apply for positions with top employers across various industries.</t>
+  </si>
+  <si>
+    <t>Find the Perfect Job in Your Desired Location &amp; Apply</t>
+  </si>
+  <si>
+    <t>Find the perfect job location. Browse job listings by geographic preference and find positions that align with your career goals.</t>
+  </si>
+  <si>
+    <t>CompanyName Offering Job Placements in City, State</t>
+  </si>
+  <si>
+    <t>Our listings page features job placements offered by CompanyName present in City, State designed to match your skills and interests.</t>
+  </si>
+  <si>
+    <t>Cookie Usage and Policy Explained for Job Seekers</t>
+  </si>
+  <si>
+    <t>Your consent is important. Read our cookie policy to understand how cookies are used to personalize and enhance your experience on our job search platform.</t>
+  </si>
+  <si>
+    <t>nursesopenings.com</t>
+  </si>
+  <si>
+    <t>Search for Healthcare Jobs &amp; Find Your Ideal Position Today</t>
+  </si>
+  <si>
+    <t>Find your ideal healthcare job with our comprehensive search page. Browse through numerous job listings and apply for positions that suit your skills.</t>
+  </si>
+  <si>
+    <t>About Us - Committed to Your Healthcare Career Success</t>
+  </si>
+  <si>
+    <t>Get to know us and our dedication to helping healthcare professionals succeed. Explore our story and the values that drive our job search platform.</t>
+  </si>
+  <si>
+    <t>We're Here to Help. Contact Our Support Team Now</t>
+  </si>
+  <si>
+    <t>Get in touch with us. Our support team is available to answer your questions and provide guidance on using our healthcare job search.</t>
+  </si>
+  <si>
+    <t>Understand Our Privacy Policy for Healthcare Jobs</t>
+  </si>
+  <si>
+    <t>Discover how we protect your privacy. Our policy details the measures we take to keep your personal information safe and secure on our job search platform.</t>
+  </si>
+  <si>
+    <t>Terms and Conditions for Our Healthcare Job Platform</t>
+  </si>
+  <si>
+    <t>Discover our terms and conditions. By using our platform, you agree to the guidelines that govern our healthcare job search services.</t>
+  </si>
+  <si>
+    <t>Browse Top Company Jobs in Healthcare Industry</t>
+  </si>
+  <si>
+    <t>Search for healthcare jobs at reputable companies and apply. Our platform features listings from leading employers in the healthcare industry.</t>
+  </si>
+  <si>
+    <t>Discover Healthcare Jobs in Your Preferred Location Now</t>
+  </si>
+  <si>
+    <t>Explore healthcare jobs by location. Discover opportunities in cities and regions that match your lifestyle and career aspirations.</t>
+  </si>
+  <si>
+    <t>Find Healthcare Openings at CompanyName City, State</t>
+  </si>
+  <si>
+    <t>Our healthcare listings page offers a wide range of nursing opportunities from CompanyName present in City, State. Explore now.</t>
+  </si>
+  <si>
+    <t>Learn Our Cookie Policy and Practices in Medic Search</t>
+  </si>
+  <si>
+    <t>Discover our cookie policy. We use cookies to improve functionality and personalize your experience on our healthcare job search platform.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,12 +829,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Slack-Lato"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -886,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,23 +883,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1222,243 +1206,243 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2072,618 +2056,609 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>221</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="11"/>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="8"/>
+      <c r="B80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>123</v>
+      <c r="C80" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="11"/>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>125</v>
+      <c r="C81" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="11"/>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="8"/>
+      <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>127</v>
+      <c r="C82" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="8"/>
+      <c r="B83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>129</v>
+      <c r="C83" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="11"/>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="8"/>
+      <c r="B84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>131</v>
+      <c r="C84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="11"/>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>133</v>
+      <c r="C85" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="11"/>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>135</v>
+      <c r="C86" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="11"/>
-      <c r="B87" s="2" t="s">
+      <c r="A87" s="8"/>
+      <c r="B87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>137</v>
+      <c r="C87" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="11"/>
-      <c r="B88" s="3" t="s">
+      <c r="A88" s="8"/>
+      <c r="B88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>139</v>
+      <c r="C88" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="10"/>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>224</v>
+      <c r="C91" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="10"/>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="8"/>
+      <c r="B92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>226</v>
+      <c r="C92" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="10"/>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="8"/>
+      <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>228</v>
+      <c r="C93" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="10"/>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="8"/>
+      <c r="B94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>230</v>
+      <c r="C94" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="10"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="8"/>
+      <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>232</v>
+      <c r="C95" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="10"/>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="8"/>
+      <c r="B96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>234</v>
+      <c r="C96" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="10"/>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="8"/>
+      <c r="B97" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>236</v>
+      <c r="C97" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="10"/>
-      <c r="B98" s="6" t="s">
+      <c r="A98" s="8"/>
+      <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>238</v>
+      <c r="C98" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="10"/>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="8"/>
+      <c r="B99" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>240</v>
+      <c r="C99" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>243</v>
+      <c r="C101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="10"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="8"/>
+      <c r="B102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>245</v>
+      <c r="C102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="10"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="8"/>
+      <c r="B103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>247</v>
+      <c r="C103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10"/>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="8"/>
+      <c r="B104" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>249</v>
+      <c r="C104" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="8"/>
+      <c r="B105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>250</v>
+      <c r="C105" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="10"/>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="8"/>
+      <c r="B106" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>252</v>
+      <c r="C106" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="10"/>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="8"/>
+      <c r="B107" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>254</v>
+      <c r="C107" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="10"/>
-      <c r="B108" s="6" t="s">
+      <c r="A108" s="8"/>
+      <c r="B108" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>256</v>
+      <c r="C108" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="10"/>
-      <c r="B109" s="6" t="s">
+      <c r="A109" s="8"/>
+      <c r="B109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>258</v>
+      <c r="C109" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="10"/>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="8"/>
+      <c r="B110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>260</v>
+      <c r="C110" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="8"/>
+      <c r="B113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="8"/>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="8"/>
+      <c r="B115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="8"/>
+      <c r="B116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="8"/>
+      <c r="B117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="8"/>
+      <c r="B118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="8"/>
+      <c r="B119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="8"/>
+      <c r="B120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="8"/>
+      <c r="B121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="8"/>
+      <c r="B124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="10"/>
-      <c r="B113" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="5" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="8"/>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D125" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="10"/>
-      <c r="B114" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="5" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="8"/>
+      <c r="B126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="10"/>
-      <c r="B115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="5" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="8"/>
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="10"/>
-      <c r="B116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="5" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="8"/>
+      <c r="B128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="10"/>
-      <c r="B117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="5" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="8"/>
+      <c r="B129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="10"/>
-      <c r="B118" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="5" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="8"/>
+      <c r="B130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D130" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="10"/>
-      <c r="B119" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="5" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="8"/>
+      <c r="B131" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D131" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="10"/>
-      <c r="B120" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="5" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="8"/>
+      <c r="B132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D132" s="4" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="10"/>
-      <c r="B121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="10"/>
-      <c r="B124" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="10"/>
-      <c r="B125" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="10"/>
-      <c r="B126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="10"/>
-      <c r="B127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="10"/>
-      <c r="B128" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="10"/>
-      <c r="B129" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="10"/>
-      <c r="B130" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="10"/>
-      <c r="B131" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="10"/>
-      <c r="B132" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="A79:A88"/>
     <mergeCell ref="A68:A77"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A57:A66"/>
@@ -2691,6 +2666,11 @@
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="A79:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
